--- a/gen_specs_grid.xlsx
+++ b/gen_specs_grid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,9 +455,6 @@
       <c r="H1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -466,28 +463,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.07753333333334</v>
+        <v>97.59911177953592</v>
       </c>
       <c r="C2" t="n">
-        <v>98.9879166471619</v>
+        <v>97.5223026764241</v>
       </c>
       <c r="D2" t="n">
-        <v>98.9879166471619</v>
+        <v>98.44401191376585</v>
       </c>
       <c r="E2" t="n">
-        <v>98.89829996099046</v>
+        <v>99.59614846044303</v>
       </c>
       <c r="F2" t="n">
-        <v>99.07753333333334</v>
+        <v>99.36572115110759</v>
       </c>
       <c r="G2" t="n">
-        <v>98.45021653013328</v>
+        <v>97.5223026764241</v>
       </c>
       <c r="H2" t="n">
-        <v>98.9879166471619</v>
-      </c>
-      <c r="I2" t="n">
-        <v>96.29921377279716</v>
+        <v>99.36572115110759</v>
       </c>
     </row>
     <row r="3">
@@ -517,9 +511,6 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -546,9 +537,6 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -565,9 +553,6 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -576,28 +561,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>359240.7964938587</v>
+        <v>123470.889569777</v>
       </c>
       <c r="C6" t="n">
-        <v>462320.9515952024</v>
+        <v>117694.2913330817</v>
       </c>
       <c r="D6" t="n">
-        <v>393190.6370774501</v>
+        <v>79318.2481218171</v>
       </c>
       <c r="E6" t="n">
         <v>301405.1618240763</v>
       </c>
       <c r="F6" t="n">
-        <v>376655.6180435861</v>
+        <v>132064.6735218181</v>
       </c>
       <c r="G6" t="n">
-        <v>543612.8460516948</v>
+        <v>117861.6508226428</v>
       </c>
       <c r="H6" t="n">
-        <v>423298.6049150993</v>
-      </c>
-      <c r="I6" t="n">
-        <v>919160.8584229504</v>
+        <v>132784.5434968733</v>
       </c>
     </row>
     <row r="7">
@@ -607,28 +589,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359240.7964938587</v>
+        <v>123470.889569777</v>
       </c>
       <c r="C7" t="n">
-        <v>462320.9515952024</v>
+        <v>117694.2913330817</v>
       </c>
       <c r="D7" t="n">
-        <v>393190.6370774501</v>
+        <v>79318.2481218171</v>
       </c>
       <c r="E7" t="n">
         <v>301405.1618240763</v>
       </c>
       <c r="F7" t="n">
-        <v>376655.6180435861</v>
+        <v>132064.6735218181</v>
       </c>
       <c r="G7" t="n">
-        <v>543612.8460516948</v>
+        <v>117861.6508226428</v>
       </c>
       <c r="H7" t="n">
-        <v>423298.6049150993</v>
-      </c>
-      <c r="I7" t="n">
-        <v>919160.8584229504</v>
+        <v>132784.5434968733</v>
       </c>
     </row>
     <row r="8">
@@ -638,28 +617,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21784.83884046271</v>
+        <v>120618.0314188423</v>
       </c>
       <c r="C8" t="n">
-        <v>15862.81092331901</v>
+        <v>118000.4960850636</v>
       </c>
       <c r="D8" t="n">
-        <v>17765.95403352257</v>
+        <v>118314.6839969034</v>
       </c>
       <c r="E8" t="n">
-        <v>21685.11582137376</v>
+        <v>20903.85724344341</v>
       </c>
       <c r="F8" t="n">
-        <v>17966.56481620447</v>
+        <v>120093.6614290069</v>
       </c>
       <c r="G8" t="n">
-        <v>11188.45349865443</v>
+        <v>117975.8163727019</v>
       </c>
       <c r="H8" t="n">
-        <v>15616.911297232</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1361.528529972164</v>
+        <v>119996.4664596475</v>
       </c>
     </row>
     <row r="9">
@@ -669,28 +645,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21784.83884046271</v>
+        <v>131081.8424136113</v>
       </c>
       <c r="C9" t="n">
-        <v>15862.81092331901</v>
+        <v>128611.8297281982</v>
       </c>
       <c r="D9" t="n">
-        <v>17765.95403352257</v>
+        <v>128737.8335227967</v>
       </c>
       <c r="E9" t="n">
-        <v>21685.11582137376</v>
+        <v>25986.46540410689</v>
       </c>
       <c r="F9" t="n">
-        <v>17966.56481620447</v>
+        <v>130346.484391842</v>
       </c>
       <c r="G9" t="n">
-        <v>11188.45349865443</v>
+        <v>128583.7476592794</v>
       </c>
       <c r="H9" t="n">
-        <v>15616.911297232</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1361.528529972164</v>
+        <v>130235.6267921455</v>
       </c>
     </row>
     <row r="10">
@@ -700,28 +673,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21784.83884046271</v>
+        <v>114758.4188680274</v>
       </c>
       <c r="C10" t="n">
-        <v>15862.81092331901</v>
+        <v>111962.9932222951</v>
       </c>
       <c r="D10" t="n">
-        <v>17765.95403352257</v>
+        <v>112452.9793023932</v>
       </c>
       <c r="E10" t="n">
-        <v>21685.11582137376</v>
+        <v>15216.55291191587</v>
       </c>
       <c r="F10" t="n">
-        <v>17966.56481620447</v>
+        <v>114170.1716902473</v>
       </c>
       <c r="G10" t="n">
-        <v>11188.45349865443</v>
+        <v>111941.6809064534</v>
       </c>
       <c r="H10" t="n">
-        <v>15616.911297232</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1361.528529972164</v>
+        <v>114085.501008195</v>
       </c>
     </row>
     <row r="11">
@@ -731,28 +701,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>113046.6075847696</v>
+        <v>87732.86743601362</v>
       </c>
       <c r="C11" t="n">
-        <v>133069.1390231142</v>
+        <v>83628.27623158488</v>
       </c>
       <c r="D11" t="n">
-        <v>171223.9424916932</v>
+        <v>91584.97383035235</v>
       </c>
       <c r="E11" t="n">
-        <v>98454.61883456736</v>
+        <v>98369.08435258492</v>
       </c>
       <c r="F11" t="n">
-        <v>117326.494010543</v>
+        <v>93839.22425311648</v>
       </c>
       <c r="G11" t="n">
-        <v>152990.289669783</v>
+        <v>83747.19436656381</v>
       </c>
       <c r="H11" t="n">
-        <v>137202.1163430282</v>
-      </c>
-      <c r="I11" t="n">
-        <v>190153.8972822749</v>
+        <v>94350.73151861651</v>
       </c>
     </row>
     <row r="12">
@@ -762,28 +729,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>113046.6075847696</v>
+        <v>89291.79189220014</v>
       </c>
       <c r="C12" t="n">
-        <v>133069.1390231142</v>
+        <v>85114.26624714232</v>
       </c>
       <c r="D12" t="n">
-        <v>171223.9424916932</v>
+        <v>93212.34632706769</v>
       </c>
       <c r="E12" t="n">
-        <v>98454.61883456736</v>
+        <v>100117.0036422601</v>
       </c>
       <c r="F12" t="n">
-        <v>117326.494010543</v>
+        <v>95506.65250336089</v>
       </c>
       <c r="G12" t="n">
-        <v>152990.289669783</v>
+        <v>85235.29743728881</v>
       </c>
       <c r="H12" t="n">
-        <v>137202.1163430282</v>
-      </c>
-      <c r="I12" t="n">
-        <v>190153.8972822749</v>
+        <v>96027.2487364167</v>
       </c>
     </row>
     <row r="13">
@@ -793,28 +757,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>113046.6075847696</v>
+        <v>84920.61847308649</v>
       </c>
       <c r="C13" t="n">
-        <v>133069.1390231142</v>
+        <v>80947.5986249264</v>
       </c>
       <c r="D13" t="n">
-        <v>171223.9424916932</v>
+        <v>88649.24683086766</v>
       </c>
       <c r="E13" t="n">
-        <v>98454.61883456736</v>
+        <v>95215.89486340735</v>
       </c>
       <c r="F13" t="n">
-        <v>117326.494010543</v>
+        <v>90831.23797841524</v>
       </c>
       <c r="G13" t="n">
-        <v>152990.289669783</v>
+        <v>81062.70487718061</v>
       </c>
       <c r="H13" t="n">
-        <v>137202.1163430282</v>
-      </c>
-      <c r="I13" t="n">
-        <v>190153.8972822749</v>
+        <v>91326.34904236648</v>
       </c>
     </row>
     <row r="14">
@@ -824,28 +785,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>426759.4805698859</v>
+        <v>231067.5887455085</v>
       </c>
       <c r="C14" t="n">
-        <v>434841.2236863327</v>
+        <v>239320.0026292767</v>
       </c>
       <c r="D14" t="n">
-        <v>373875.5836049204</v>
+        <v>203469.1879863865</v>
       </c>
       <c r="E14" t="n">
-        <v>503888.6068841917</v>
+        <v>521930.0434661582</v>
       </c>
       <c r="F14" t="n">
-        <v>426759.4805698859</v>
+        <v>167618.3733434963</v>
       </c>
       <c r="G14" t="n">
-        <v>483331.6823850133</v>
+        <v>239320.0026292767</v>
       </c>
       <c r="H14" t="n">
-        <v>373875.5836049204</v>
-      </c>
-      <c r="I14" t="n">
-        <v>702949.0133613221</v>
+        <v>167618.3733434963</v>
       </c>
     </row>
     <row r="15">
@@ -855,28 +813,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>426759.4805698859</v>
+        <v>239635.4326079854</v>
       </c>
       <c r="C15" t="n">
-        <v>434841.2236863327</v>
+        <v>248193.8409154135</v>
       </c>
       <c r="D15" t="n">
-        <v>373875.5836049204</v>
+        <v>212232.9211943233</v>
       </c>
       <c r="E15" t="n">
-        <v>503888.6068841917</v>
+        <v>557849.6990642938</v>
       </c>
       <c r="F15" t="n">
-        <v>426759.4805698859</v>
+        <v>177746.4659392549</v>
       </c>
       <c r="G15" t="n">
-        <v>483331.6823850133</v>
+        <v>248193.8409154135</v>
       </c>
       <c r="H15" t="n">
-        <v>373875.5836049204</v>
-      </c>
-      <c r="I15" t="n">
-        <v>702949.0133613221</v>
+        <v>177746.4659392549</v>
       </c>
     </row>
     <row r="16">
@@ -886,28 +841,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>426759.4805698859</v>
+        <v>216106.6520587369</v>
       </c>
       <c r="C16" t="n">
-        <v>434841.2236863327</v>
+        <v>223824.7467751203</v>
       </c>
       <c r="D16" t="n">
-        <v>373875.5836049204</v>
+        <v>190992.8194251581</v>
       </c>
       <c r="E16" t="n">
-        <v>503888.6068841917</v>
+        <v>493717.8634058809</v>
       </c>
       <c r="F16" t="n">
-        <v>426759.4805698859</v>
+        <v>158160.8920751958</v>
       </c>
       <c r="G16" t="n">
-        <v>483331.6823850133</v>
+        <v>223824.7467751203</v>
       </c>
       <c r="H16" t="n">
-        <v>373875.5836049204</v>
-      </c>
-      <c r="I16" t="n">
-        <v>702949.0133613221</v>
+        <v>158160.8920751958</v>
       </c>
     </row>
     <row r="17">
@@ -917,28 +869,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>688884.9635447328</v>
+        <v>239663.5634742678</v>
       </c>
       <c r="C17" t="n">
-        <v>697277.9832767359</v>
+        <v>248222.9764554917</v>
       </c>
       <c r="D17" t="n">
-        <v>598865.8456274883</v>
+        <v>245762.4214322999</v>
       </c>
       <c r="E17" t="n">
-        <v>804083.1406579865</v>
+        <v>819138.0319744024</v>
       </c>
       <c r="F17" t="n">
-        <v>688884.9635447328</v>
+        <v>243301.8664091079</v>
       </c>
       <c r="G17" t="n">
-        <v>747636.1016687541</v>
+        <v>248222.9764554917</v>
       </c>
       <c r="H17" t="n">
-        <v>598865.8456274883</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1116105.593069735</v>
+        <v>243301.8664091079</v>
       </c>
     </row>
     <row r="18">
@@ -948,28 +897,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>688884.9635447328</v>
+        <v>249307.4997788116</v>
       </c>
       <c r="C18" t="n">
-        <v>697277.9832767359</v>
+        <v>258211.3390566263</v>
       </c>
       <c r="D18" t="n">
-        <v>598865.8456274883</v>
+        <v>255665.231472417</v>
       </c>
       <c r="E18" t="n">
-        <v>804083.1406579865</v>
+        <v>852207.3885521657</v>
       </c>
       <c r="F18" t="n">
-        <v>688884.9635447328</v>
+        <v>253119.1238882076</v>
       </c>
       <c r="G18" t="n">
-        <v>747636.1016687541</v>
+        <v>258211.3390566263</v>
       </c>
       <c r="H18" t="n">
-        <v>598865.8456274883</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1116105.593069735</v>
+        <v>253119.1238882076</v>
       </c>
     </row>
     <row r="19">
@@ -979,28 +925,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>688884.9635447328</v>
+        <v>224246.9893852703</v>
       </c>
       <c r="C19" t="n">
-        <v>697277.9832767359</v>
+        <v>232255.8104347442</v>
       </c>
       <c r="D19" t="n">
-        <v>598865.8456274883</v>
+        <v>230053.4824778979</v>
       </c>
       <c r="E19" t="n">
-        <v>804083.1406579865</v>
+        <v>767245.8391936752</v>
       </c>
       <c r="F19" t="n">
-        <v>688884.9635447328</v>
+        <v>227851.1545210515</v>
       </c>
       <c r="G19" t="n">
-        <v>747636.1016687541</v>
+        <v>232255.8104347442</v>
       </c>
       <c r="H19" t="n">
-        <v>598865.8456274883</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1116105.593069735</v>
+        <v>227851.1545210515</v>
       </c>
     </row>
   </sheetData>
